--- a/INTLINE/data/136/ANFIA/Italy New registrations_historical.xlsx
+++ b/INTLINE/data/136/ANFIA/Italy New registrations_historical.xlsx
@@ -2589,7 +2589,7 @@
         <v>22786</v>
       </c>
       <c r="KF2" t="n">
-        <v>26424</v>
+        <v>26425</v>
       </c>
       <c r="KG2" t="n">
         <v>23268</v>
@@ -2616,15 +2616,17 @@
         <v>15255</v>
       </c>
       <c r="KO2" t="n">
-        <v>4645</v>
+        <v>13503</v>
       </c>
       <c r="KP2" t="n">
         <v>16033</v>
       </c>
       <c r="KQ2" t="n">
-        <v>16066</v>
-      </c>
-      <c r="KR2" t="inlineStr"/>
+        <v>16067</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>15582</v>
+      </c>
       <c r="KS2" t="inlineStr"/>
       <c r="KT2" t="inlineStr"/>
       <c r="KU2" t="inlineStr"/>
@@ -3323,7 +3325,7 @@
         <v>4661</v>
       </c>
       <c r="KO3" t="n">
-        <v>538</v>
+        <v>5419</v>
       </c>
       <c r="KP3" t="n">
         <v>6641</v>
@@ -3331,7 +3333,9 @@
       <c r="KQ3" t="n">
         <v>6931</v>
       </c>
-      <c r="KR3" t="inlineStr"/>
+      <c r="KR3" t="n">
+        <v>6593</v>
+      </c>
       <c r="KS3" t="inlineStr"/>
       <c r="KT3" t="inlineStr"/>
       <c r="KU3" t="inlineStr"/>
@@ -4030,16 +4034,16 @@
         <v>4377</v>
       </c>
       <c r="KO4" t="n">
-        <v>3193</v>
+        <v>2909</v>
       </c>
       <c r="KP4" t="n">
         <v>3460</v>
       </c>
       <c r="KQ4" t="n">
-        <v>4729</v>
+        <v>4732</v>
       </c>
       <c r="KR4" t="n">
-        <v>0</v>
+        <v>7038</v>
       </c>
       <c r="KS4" t="n">
         <v>0</v>
@@ -4754,10 +4758,10 @@
         <v>2497</v>
       </c>
       <c r="KN5" t="n">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="KO5" t="n">
-        <v>1829</v>
+        <v>2312</v>
       </c>
       <c r="KP5" t="n">
         <v>3609</v>
@@ -4765,7 +4769,9 @@
       <c r="KQ5" t="n">
         <v>4436</v>
       </c>
-      <c r="KR5" t="inlineStr"/>
+      <c r="KR5" t="n">
+        <v>4584</v>
+      </c>
       <c r="KS5" t="inlineStr"/>
       <c r="KT5" t="inlineStr"/>
       <c r="KU5" t="inlineStr"/>
@@ -5443,7 +5449,7 @@
         <v>977</v>
       </c>
       <c r="KH6" t="n">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="KI6" t="n">
         <v>1124</v>
@@ -5464,15 +5470,17 @@
         <v>954</v>
       </c>
       <c r="KO6" t="n">
-        <v>13503</v>
+        <v>974</v>
       </c>
       <c r="KP6" t="n">
         <v>697</v>
       </c>
       <c r="KQ6" t="n">
-        <v>640</v>
-      </c>
-      <c r="KR6" t="inlineStr"/>
+        <v>645</v>
+      </c>
+      <c r="KR6" t="n">
+        <v>813</v>
+      </c>
       <c r="KS6" t="inlineStr"/>
       <c r="KT6" t="inlineStr"/>
       <c r="KU6" t="inlineStr"/>
@@ -6177,7 +6185,9 @@
       <c r="KQ7" t="n">
         <v>128</v>
       </c>
-      <c r="KR7" t="inlineStr"/>
+      <c r="KR7" t="n">
+        <v>133</v>
+      </c>
       <c r="KS7" t="inlineStr"/>
       <c r="KT7" t="inlineStr"/>
       <c r="KU7" t="inlineStr"/>
@@ -6876,15 +6886,17 @@
         <v>8727</v>
       </c>
       <c r="KO8" t="n">
-        <v>157</v>
+        <v>7558</v>
       </c>
       <c r="KP8" t="n">
         <v>7863</v>
       </c>
       <c r="KQ8" t="n">
-        <v>7265</v>
-      </c>
-      <c r="KR8" t="inlineStr"/>
+        <v>7267</v>
+      </c>
+      <c r="KR8" t="n">
+        <v>8892</v>
+      </c>
       <c r="KS8" t="inlineStr"/>
       <c r="KT8" t="inlineStr"/>
       <c r="KU8" t="inlineStr"/>
@@ -7583,15 +7595,17 @@
         <v>3290</v>
       </c>
       <c r="KO9" t="n">
-        <v>7558</v>
+        <v>2998</v>
       </c>
       <c r="KP9" t="n">
         <v>2984</v>
       </c>
       <c r="KQ9" t="n">
-        <v>4371</v>
-      </c>
-      <c r="KR9" t="inlineStr"/>
+        <v>4372</v>
+      </c>
+      <c r="KR9" t="n">
+        <v>5552</v>
+      </c>
       <c r="KS9" t="inlineStr"/>
       <c r="KT9" t="inlineStr"/>
       <c r="KU9" t="inlineStr"/>
@@ -8290,15 +8304,17 @@
         <v>1348</v>
       </c>
       <c r="KO10" t="n">
-        <v>476</v>
+        <v>1331</v>
       </c>
       <c r="KP10" t="n">
         <v>1781</v>
       </c>
       <c r="KQ10" t="n">
-        <v>1988</v>
-      </c>
-      <c r="KR10" t="inlineStr"/>
+        <v>1989</v>
+      </c>
+      <c r="KR10" t="n">
+        <v>1848</v>
+      </c>
       <c r="KS10" t="inlineStr"/>
       <c r="KT10" t="inlineStr"/>
       <c r="KU10" t="inlineStr"/>
@@ -8997,15 +9013,17 @@
         <v>1476</v>
       </c>
       <c r="KO11" t="n">
-        <v>829</v>
+        <v>1258</v>
       </c>
       <c r="KP11" t="n">
         <v>1032</v>
       </c>
       <c r="KQ11" t="n">
-        <v>1312</v>
-      </c>
-      <c r="KR11" t="inlineStr"/>
+        <v>1313</v>
+      </c>
+      <c r="KR11" t="n">
+        <v>1412</v>
+      </c>
       <c r="KS11" t="inlineStr"/>
       <c r="KT11" t="inlineStr"/>
       <c r="KU11" t="inlineStr"/>
@@ -9704,7 +9722,9 @@
       <c r="KQ12" t="n">
         <v>26</v>
       </c>
-      <c r="KR12" t="inlineStr"/>
+      <c r="KR12" t="n">
+        <v>28</v>
+      </c>
       <c r="KS12" t="inlineStr"/>
       <c r="KT12" t="inlineStr"/>
       <c r="KU12" t="inlineStr"/>
@@ -10385,7 +10405,7 @@
         <v>5684</v>
       </c>
       <c r="KI13" t="n">
-        <v>8725</v>
+        <v>8726</v>
       </c>
       <c r="KJ13" t="n">
         <v>5470</v>
@@ -10403,15 +10423,17 @@
         <v>5832</v>
       </c>
       <c r="KO13" t="n">
-        <v>974</v>
+        <v>4761</v>
       </c>
       <c r="KP13" t="n">
         <v>5417</v>
       </c>
       <c r="KQ13" t="n">
-        <v>5292</v>
-      </c>
-      <c r="KR13" t="inlineStr"/>
+        <v>5295</v>
+      </c>
+      <c r="KR13" t="n">
+        <v>5221</v>
+      </c>
       <c r="KS13" t="inlineStr"/>
       <c r="KT13" t="inlineStr"/>
       <c r="KU13" t="inlineStr"/>
@@ -11086,7 +11108,7 @@
         <v>9288</v>
       </c>
       <c r="KG14" t="n">
-        <v>8472</v>
+        <v>8471</v>
       </c>
       <c r="KH14" t="n">
         <v>9013</v>
@@ -11098,7 +11120,7 @@
         <v>6838</v>
       </c>
       <c r="KK14" t="n">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="KL14" t="n">
         <v>5923</v>
@@ -11110,16 +11132,16 @@
         <v>6887</v>
       </c>
       <c r="KO14" t="n">
-        <v>141</v>
+        <v>6368</v>
       </c>
       <c r="KP14" t="n">
         <v>7870</v>
       </c>
       <c r="KQ14" t="n">
-        <v>6278</v>
+        <v>6282</v>
       </c>
       <c r="KR14" t="n">
-        <v>0</v>
+        <v>7823</v>
       </c>
       <c r="KS14" t="n">
         <v>0</v>
@@ -11837,15 +11859,17 @@
         <v>4836</v>
       </c>
       <c r="KO15" t="n">
-        <v>2998</v>
+        <v>3715</v>
       </c>
       <c r="KP15" t="n">
         <v>8170</v>
       </c>
       <c r="KQ15" t="n">
-        <v>8656</v>
-      </c>
-      <c r="KR15" t="inlineStr"/>
+        <v>8661</v>
+      </c>
+      <c r="KR15" t="n">
+        <v>7642</v>
+      </c>
       <c r="KS15" t="inlineStr"/>
       <c r="KT15" t="inlineStr"/>
       <c r="KU15" t="inlineStr"/>
@@ -11859,7 +11883,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -11971,588 +11995,590 @@
       <c r="DD16" t="inlineStr"/>
       <c r="DE16" t="inlineStr"/>
       <c r="DF16" t="n">
-        <v>2898</v>
+        <v>2683</v>
       </c>
       <c r="DG16" t="n">
-        <v>3410</v>
+        <v>2414</v>
       </c>
       <c r="DH16" t="n">
-        <v>3784</v>
+        <v>3356</v>
       </c>
       <c r="DI16" t="n">
-        <v>3128</v>
+        <v>1627</v>
       </c>
       <c r="DJ16" t="n">
-        <v>3220</v>
+        <v>2500</v>
       </c>
       <c r="DK16" t="n">
-        <v>2825</v>
+        <v>2226</v>
       </c>
       <c r="DL16" t="n">
-        <v>2758</v>
+        <v>1787</v>
       </c>
       <c r="DM16" t="n">
-        <v>1306</v>
+        <v>901</v>
       </c>
       <c r="DN16" t="n">
-        <v>2670</v>
+        <v>2282</v>
       </c>
       <c r="DO16" t="n">
-        <v>3411</v>
+        <v>2479</v>
       </c>
       <c r="DP16" t="n">
-        <v>3407</v>
+        <v>2337</v>
       </c>
       <c r="DQ16" t="n">
-        <v>2584</v>
+        <v>2397</v>
       </c>
       <c r="DR16" t="n">
-        <v>3254</v>
+        <v>2739</v>
       </c>
       <c r="DS16" t="n">
-        <v>3137</v>
+        <v>2968</v>
       </c>
       <c r="DT16" t="n">
-        <v>3227</v>
+        <v>3055</v>
       </c>
       <c r="DU16" t="n">
-        <v>2539</v>
+        <v>2954</v>
       </c>
       <c r="DV16" t="n">
-        <v>3203</v>
+        <v>3438</v>
       </c>
       <c r="DW16" t="n">
+        <v>3237</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>2424</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>1297</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>2090</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>2390</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>1958</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>2081</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>2449</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>1941</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>2446</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>1796</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>1600</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>1773</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>1736</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>693</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>1389</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>1845</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>1497</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>1494</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>1695</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>1195</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>1695</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>1779</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>1765</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>2341</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>771</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>2032</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>1830</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>1906</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>1827</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>1990</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>2094</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>2993</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>1381</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>1280</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>1677</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>1390</v>
+      </c>
+      <c r="FI16" t="n">
+        <v>659</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>1436</v>
+      </c>
+      <c r="FK16" t="n">
+        <v>1488</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>1392</v>
+      </c>
+      <c r="FM16" t="n">
+        <v>1277</v>
+      </c>
+      <c r="FN16" t="n">
+        <v>1649</v>
+      </c>
+      <c r="FO16" t="n">
+        <v>1654</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>1846</v>
+      </c>
+      <c r="FQ16" t="n">
+        <v>1253</v>
+      </c>
+      <c r="FR16" t="n">
+        <v>1515</v>
+      </c>
+      <c r="FS16" t="n">
+        <v>1740</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>1787</v>
+      </c>
+      <c r="FU16" t="n">
+        <v>824</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>1908</v>
+      </c>
+      <c r="FW16" t="n">
+        <v>1570</v>
+      </c>
+      <c r="FX16" t="n">
+        <v>2105</v>
+      </c>
+      <c r="FY16" t="n">
+        <v>1603</v>
+      </c>
+      <c r="FZ16" t="n">
+        <v>2369</v>
+      </c>
+      <c r="GA16" t="n">
+        <v>2375</v>
+      </c>
+      <c r="GB16" t="n">
+        <v>2354</v>
+      </c>
+      <c r="GC16" t="n">
+        <v>2085</v>
+      </c>
+      <c r="GD16" t="n">
+        <v>2766</v>
+      </c>
+      <c r="GE16" t="n">
+        <v>2287</v>
+      </c>
+      <c r="GF16" t="n">
+        <v>2431</v>
+      </c>
+      <c r="GG16" t="n">
+        <v>1479</v>
+      </c>
+      <c r="GH16" t="n">
+        <v>2151</v>
+      </c>
+      <c r="GI16" t="n">
+        <v>2854</v>
+      </c>
+      <c r="GJ16" t="n">
+        <v>2320</v>
+      </c>
+      <c r="GK16" t="n">
+        <v>1591</v>
+      </c>
+      <c r="GL16" t="n">
+        <v>3097</v>
+      </c>
+      <c r="GM16" t="n">
+        <v>2765</v>
+      </c>
+      <c r="GN16" t="n">
+        <v>3296</v>
+      </c>
+      <c r="GO16" t="n">
+        <v>2441</v>
+      </c>
+      <c r="GP16" t="n">
+        <v>2797</v>
+      </c>
+      <c r="GQ16" t="n">
+        <v>2466</v>
+      </c>
+      <c r="GR16" t="n">
+        <v>2617</v>
+      </c>
+      <c r="GS16" t="n">
+        <v>1348</v>
+      </c>
+      <c r="GT16" t="n">
+        <v>2511</v>
+      </c>
+      <c r="GU16" t="n">
+        <v>2562</v>
+      </c>
+      <c r="GV16" t="n">
+        <v>2231</v>
+      </c>
+      <c r="GW16" t="n">
+        <v>1782</v>
+      </c>
+      <c r="GX16" t="n">
+        <v>2817</v>
+      </c>
+      <c r="GY16" t="n">
+        <v>3130</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>2870</v>
+      </c>
+      <c r="HA16" t="n">
+        <v>2796</v>
+      </c>
+      <c r="HB16" t="n">
+        <v>2726</v>
+      </c>
+      <c r="HC16" t="n">
+        <v>2667</v>
+      </c>
+      <c r="HD16" t="n">
+        <v>3108</v>
+      </c>
+      <c r="HE16" t="n">
+        <v>1613</v>
+      </c>
+      <c r="HF16" t="n">
+        <v>2992</v>
+      </c>
+      <c r="HG16" t="n">
+        <v>3197</v>
+      </c>
+      <c r="HH16" t="n">
+        <v>2608</v>
+      </c>
+      <c r="HI16" t="n">
+        <v>2213</v>
+      </c>
+      <c r="HJ16" t="n">
+        <v>3482</v>
+      </c>
+      <c r="HK16" t="n">
+        <v>3499</v>
+      </c>
+      <c r="HL16" t="n">
+        <v>3627</v>
+      </c>
+      <c r="HM16" t="n">
+        <v>3571</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>3728</v>
+      </c>
+      <c r="HO16" t="n">
+        <v>3587</v>
+      </c>
+      <c r="HP16" t="n">
+        <v>3665</v>
+      </c>
+      <c r="HQ16" t="n">
+        <v>1757</v>
+      </c>
+      <c r="HR16" t="n">
+        <v>3089</v>
+      </c>
+      <c r="HS16" t="n">
+        <v>3762</v>
+      </c>
+      <c r="HT16" t="n">
+        <v>3117</v>
+      </c>
+      <c r="HU16" t="n">
+        <v>2181</v>
+      </c>
+      <c r="HV16" t="n">
+        <v>4497</v>
+      </c>
+      <c r="HW16" t="n">
+        <v>3941</v>
+      </c>
+      <c r="HX16" t="n">
+        <v>4244</v>
+      </c>
+      <c r="HY16" t="n">
+        <v>3787</v>
+      </c>
+      <c r="HZ16" t="n">
+        <v>4910</v>
+      </c>
+      <c r="IA16" t="n">
+        <v>4018</v>
+      </c>
+      <c r="IB16" t="n">
+        <v>4005</v>
+      </c>
+      <c r="IC16" t="n">
+        <v>2246</v>
+      </c>
+      <c r="ID16" t="n">
+        <v>3744</v>
+      </c>
+      <c r="IE16" t="n">
+        <v>3797</v>
+      </c>
+      <c r="IF16" t="n">
+        <v>3419</v>
+      </c>
+      <c r="IG16" t="n">
         <v>2546</v>
       </c>
-      <c r="DX16" t="n">
-        <v>3078</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>1417</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>2408</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>2690</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>2758</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>3378</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>2081</v>
-      </c>
-      <c r="EE16" t="n">
-        <v>2556</v>
-      </c>
-      <c r="EF16" t="n">
-        <v>1709</v>
-      </c>
-      <c r="EG16" t="n">
-        <v>2094</v>
-      </c>
-      <c r="EH16" t="n">
-        <v>2022</v>
-      </c>
-      <c r="EI16" t="n">
-        <v>2484</v>
-      </c>
-      <c r="EJ16" t="n">
-        <v>1834</v>
-      </c>
-      <c r="EK16" t="n">
-        <v>736</v>
-      </c>
-      <c r="EL16" t="n">
-        <v>1624</v>
-      </c>
-      <c r="EM16" t="n">
-        <v>1498</v>
-      </c>
-      <c r="EN16" t="n">
-        <v>937</v>
-      </c>
-      <c r="EO16" t="n">
-        <v>779</v>
-      </c>
-      <c r="EP16" t="n">
-        <v>1342</v>
-      </c>
-      <c r="EQ16" t="n">
-        <v>1809</v>
-      </c>
-      <c r="ER16" t="n">
-        <v>4014</v>
-      </c>
-      <c r="ES16" t="n">
-        <v>2404</v>
-      </c>
-      <c r="ET16" t="n">
-        <v>3619</v>
-      </c>
-      <c r="EU16" t="n">
-        <v>5168</v>
-      </c>
-      <c r="EV16" t="n">
-        <v>4522</v>
-      </c>
-      <c r="EW16" t="n">
-        <v>1509</v>
-      </c>
-      <c r="EX16" t="n">
-        <v>3998</v>
-      </c>
-      <c r="EY16" t="n">
-        <v>2264</v>
-      </c>
-      <c r="EZ16" t="n">
-        <v>3787</v>
-      </c>
-      <c r="FA16" t="n">
-        <v>4441</v>
-      </c>
-      <c r="FB16" t="n">
-        <v>3474</v>
-      </c>
-      <c r="FC16" t="n">
-        <v>3794</v>
-      </c>
-      <c r="FD16" t="n">
-        <v>5171</v>
-      </c>
-      <c r="FE16" t="n">
-        <v>2142</v>
-      </c>
-      <c r="FF16" t="n">
-        <v>2884</v>
-      </c>
-      <c r="FG16" t="n">
-        <v>3088</v>
-      </c>
-      <c r="FH16" t="n">
-        <v>2307</v>
-      </c>
-      <c r="FI16" t="n">
-        <v>1343</v>
-      </c>
-      <c r="FJ16" t="n">
-        <v>3519</v>
-      </c>
-      <c r="FK16" t="n">
-        <v>2686</v>
-      </c>
-      <c r="FL16" t="n">
-        <v>2382</v>
-      </c>
-      <c r="FM16" t="n">
-        <v>3338</v>
-      </c>
-      <c r="FN16" t="n">
-        <v>3386</v>
-      </c>
-      <c r="FO16" t="n">
-        <v>3632</v>
-      </c>
-      <c r="FP16" t="n">
-        <v>4161</v>
-      </c>
-      <c r="FQ16" t="n">
-        <v>4398</v>
-      </c>
-      <c r="FR16" t="n">
-        <v>4181</v>
-      </c>
-      <c r="FS16" t="n">
-        <v>4116</v>
-      </c>
-      <c r="FT16" t="n">
-        <v>3533</v>
-      </c>
-      <c r="FU16" t="n">
-        <v>1755</v>
-      </c>
-      <c r="FV16" t="n">
-        <v>3911</v>
-      </c>
-      <c r="FW16" t="n">
-        <v>3567</v>
-      </c>
-      <c r="FX16" t="n">
-        <v>3906</v>
-      </c>
-      <c r="FY16" t="n">
-        <v>2930</v>
-      </c>
-      <c r="FZ16" t="n">
-        <v>4052</v>
-      </c>
-      <c r="GA16" t="n">
+      <c r="IH16" t="n">
+        <v>4803</v>
+      </c>
+      <c r="II16" t="n">
+        <v>4414</v>
+      </c>
+      <c r="IJ16" t="n">
+        <v>4674</v>
+      </c>
+      <c r="IK16" t="n">
+        <v>3578</v>
+      </c>
+      <c r="IL16" t="n">
+        <v>4835</v>
+      </c>
+      <c r="IM16" t="n">
+        <v>4420</v>
+      </c>
+      <c r="IN16" t="n">
+        <v>4366</v>
+      </c>
+      <c r="IO16" t="n">
+        <v>2096</v>
+      </c>
+      <c r="IP16" t="n">
+        <v>3377</v>
+      </c>
+      <c r="IQ16" t="n">
+        <v>4235</v>
+      </c>
+      <c r="IR16" t="n">
+        <v>3684</v>
+      </c>
+      <c r="IS16" t="n">
+        <v>3475</v>
+      </c>
+      <c r="IT16" t="n">
         <v>4064</v>
       </c>
-      <c r="GB16" t="n">
-        <v>4654</v>
-      </c>
-      <c r="GC16" t="n">
-        <v>4156</v>
-      </c>
-      <c r="GD16" t="n">
-        <v>4220</v>
-      </c>
-      <c r="GE16" t="n">
-        <v>4287</v>
-      </c>
-      <c r="GF16" t="n">
-        <v>3369</v>
-      </c>
-      <c r="GG16" t="n">
-        <v>1753</v>
-      </c>
-      <c r="GH16" t="n">
-        <v>3167</v>
-      </c>
-      <c r="GI16" t="n">
-        <v>3551</v>
-      </c>
-      <c r="GJ16" t="n">
-        <v>3439</v>
-      </c>
-      <c r="GK16" t="n">
-        <v>2837</v>
-      </c>
-      <c r="GL16" t="n">
-        <v>3575</v>
-      </c>
-      <c r="GM16" t="n">
-        <v>3193</v>
-      </c>
-      <c r="GN16" t="n">
-        <v>3992</v>
-      </c>
-      <c r="GO16" t="n">
-        <v>3730</v>
-      </c>
-      <c r="GP16" t="n">
-        <v>3731</v>
-      </c>
-      <c r="GQ16" t="n">
-        <v>3587</v>
-      </c>
-      <c r="GR16" t="n">
-        <v>3227</v>
-      </c>
-      <c r="GS16" t="n">
-        <v>2000</v>
-      </c>
-      <c r="GT16" t="n">
-        <v>2846</v>
-      </c>
-      <c r="GU16" t="n">
-        <v>3142</v>
-      </c>
-      <c r="GV16" t="n">
-        <v>2491</v>
-      </c>
-      <c r="GW16" t="n">
-        <v>2816</v>
-      </c>
-      <c r="GX16" t="n">
-        <v>3244</v>
-      </c>
-      <c r="GY16" t="n">
-        <v>3433</v>
-      </c>
-      <c r="GZ16" t="n">
-        <v>4050</v>
-      </c>
-      <c r="HA16" t="n">
-        <v>3915</v>
-      </c>
-      <c r="HB16" t="n">
-        <v>3928</v>
-      </c>
-      <c r="HC16" t="n">
-        <v>3592</v>
-      </c>
-      <c r="HD16" t="n">
-        <v>3857</v>
-      </c>
-      <c r="HE16" t="n">
-        <v>1722</v>
-      </c>
-      <c r="HF16" t="n">
-        <v>3817</v>
-      </c>
-      <c r="HG16" t="n">
-        <v>3736</v>
-      </c>
-      <c r="HH16" t="n">
-        <v>3271</v>
-      </c>
-      <c r="HI16" t="n">
-        <v>3205</v>
-      </c>
-      <c r="HJ16" t="n">
-        <v>3865</v>
-      </c>
-      <c r="HK16" t="n">
-        <v>4362</v>
-      </c>
-      <c r="HL16" t="n">
-        <v>4891</v>
-      </c>
-      <c r="HM16" t="n">
-        <v>4250</v>
-      </c>
-      <c r="HN16" t="n">
-        <v>4282</v>
-      </c>
-      <c r="HO16" t="n">
-        <v>4059</v>
-      </c>
-      <c r="HP16" t="n">
-        <v>3826</v>
-      </c>
-      <c r="HQ16" t="n">
-        <v>1772</v>
-      </c>
-      <c r="HR16" t="n">
-        <v>4056</v>
-      </c>
-      <c r="HS16" t="n">
-        <v>4193</v>
-      </c>
-      <c r="HT16" t="n">
-        <v>4081</v>
-      </c>
-      <c r="HU16" t="n">
-        <v>3724</v>
-      </c>
-      <c r="HV16" t="n">
-        <v>4343</v>
-      </c>
-      <c r="HW16" t="n">
-        <v>4837</v>
-      </c>
-      <c r="HX16" t="n">
-        <v>5383</v>
-      </c>
-      <c r="HY16" t="n">
-        <v>5292</v>
-      </c>
-      <c r="HZ16" t="n">
-        <v>5328</v>
-      </c>
-      <c r="IA16" t="n">
-        <v>5337</v>
-      </c>
-      <c r="IB16" t="n">
-        <v>4069</v>
-      </c>
-      <c r="IC16" t="n">
-        <v>2325</v>
-      </c>
-      <c r="ID16" t="n">
-        <v>5066</v>
-      </c>
-      <c r="IE16" t="n">
-        <v>5081</v>
-      </c>
-      <c r="IF16" t="n">
-        <v>5136</v>
-      </c>
-      <c r="IG16" t="n">
-        <v>4182</v>
-      </c>
-      <c r="IH16" t="n">
-        <v>4436</v>
-      </c>
-      <c r="II16" t="n">
-        <v>5183</v>
-      </c>
-      <c r="IJ16" t="n">
-        <v>5446</v>
-      </c>
-      <c r="IK16" t="n">
-        <v>4634</v>
-      </c>
-      <c r="IL16" t="n">
-        <v>5681</v>
-      </c>
-      <c r="IM16" t="n">
-        <v>5636</v>
-      </c>
-      <c r="IN16" t="n">
+      <c r="IU16" t="n">
+        <v>4431</v>
+      </c>
+      <c r="IV16" t="n">
+        <v>4256</v>
+      </c>
+      <c r="IW16" t="n">
+        <v>5245</v>
+      </c>
+      <c r="IX16" t="n">
+        <v>4793</v>
+      </c>
+      <c r="IY16" t="n">
+        <v>4015</v>
+      </c>
+      <c r="IZ16" t="n">
+        <v>4526</v>
+      </c>
+      <c r="JA16" t="n">
+        <v>2435</v>
+      </c>
+      <c r="JB16" t="n">
+        <v>3770</v>
+      </c>
+      <c r="JC16" t="n">
+        <v>4153</v>
+      </c>
+      <c r="JD16" t="n">
+        <v>3422</v>
+      </c>
+      <c r="JE16" t="n">
+        <v>2647</v>
+      </c>
+      <c r="JF16" t="n">
+        <v>4458</v>
+      </c>
+      <c r="JG16" t="n">
+        <v>4100</v>
+      </c>
+      <c r="JH16" t="n">
+        <v>3966</v>
+      </c>
+      <c r="JI16" t="n">
+        <v>4821</v>
+      </c>
+      <c r="JJ16" t="n">
+        <v>4044</v>
+      </c>
+      <c r="JK16" t="n">
+        <v>4196</v>
+      </c>
+      <c r="JL16" t="n">
+        <v>4015</v>
+      </c>
+      <c r="JM16" t="n">
+        <v>2310</v>
+      </c>
+      <c r="JN16" t="n">
+        <v>3831</v>
+      </c>
+      <c r="JO16" t="n">
+        <v>4587</v>
+      </c>
+      <c r="JP16" t="n">
+        <v>3977</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>3457</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>4460</v>
+      </c>
+      <c r="JS16" t="n">
+        <v>4556</v>
+      </c>
+      <c r="JT16" t="n">
+        <v>1632</v>
+      </c>
+      <c r="JU16" t="n">
+        <v>23</v>
+      </c>
+      <c r="JV16" t="n">
+        <v>2451</v>
+      </c>
+      <c r="JW16" t="n">
+        <v>2994</v>
+      </c>
+      <c r="JX16" t="n">
+        <v>3354</v>
+      </c>
+      <c r="JY16" t="n">
+        <v>2557</v>
+      </c>
+      <c r="JZ16" t="n">
+        <v>4433</v>
+      </c>
+      <c r="KA16" t="n">
+        <v>4271</v>
+      </c>
+      <c r="KB16" t="n">
+        <v>2808</v>
+      </c>
+      <c r="KC16" t="n">
+        <v>1919</v>
+      </c>
+      <c r="KD16" t="n">
+        <v>3187</v>
+      </c>
+      <c r="KE16" t="n">
         <v>3734</v>
       </c>
-      <c r="IO16" t="n">
-        <v>2467</v>
-      </c>
-      <c r="IP16" t="n">
-        <v>5346</v>
-      </c>
-      <c r="IQ16" t="n">
-        <v>5944</v>
-      </c>
-      <c r="IR16" t="n">
-        <v>5775</v>
-      </c>
-      <c r="IS16" t="n">
-        <v>4652</v>
-      </c>
-      <c r="IT16" t="n">
-        <v>4031</v>
-      </c>
-      <c r="IU16" t="n">
-        <v>4544</v>
-      </c>
-      <c r="IV16" t="n">
-        <v>5406</v>
-      </c>
-      <c r="IW16" t="n">
-        <v>4508</v>
-      </c>
-      <c r="IX16" t="n">
-        <v>5285</v>
-      </c>
-      <c r="IY16" t="n">
-        <v>5166</v>
-      </c>
-      <c r="IZ16" t="n">
-        <v>4271</v>
-      </c>
-      <c r="JA16" t="n">
-        <v>2778</v>
-      </c>
-      <c r="JB16" t="n">
-        <v>4518</v>
-      </c>
-      <c r="JC16" t="n">
-        <v>4854</v>
-      </c>
-      <c r="JD16" t="n">
-        <v>4663</v>
-      </c>
-      <c r="JE16" t="n">
-        <v>3435</v>
-      </c>
-      <c r="JF16" t="n">
-        <v>3561</v>
-      </c>
-      <c r="JG16" t="n">
-        <v>4144</v>
-      </c>
-      <c r="JH16" t="n">
-        <v>4660</v>
-      </c>
-      <c r="JI16" t="n">
-        <v>3759</v>
-      </c>
-      <c r="JJ16" t="n">
-        <v>4688</v>
-      </c>
-      <c r="JK16" t="n">
-        <v>4607</v>
-      </c>
-      <c r="JL16" t="n">
-        <v>4276</v>
-      </c>
-      <c r="JM16" t="n">
-        <v>2279</v>
-      </c>
-      <c r="JN16" t="n">
-        <v>4561</v>
-      </c>
-      <c r="JO16" t="n">
-        <v>5006</v>
-      </c>
-      <c r="JP16" t="n">
-        <v>4720</v>
-      </c>
-      <c r="JQ16" t="n">
-        <v>4100</v>
-      </c>
-      <c r="JR16" t="n">
-        <v>3689</v>
-      </c>
-      <c r="JS16" t="n">
-        <v>3562</v>
-      </c>
-      <c r="JT16" t="n">
-        <v>783</v>
-      </c>
-      <c r="JU16" t="n">
-        <v>37</v>
-      </c>
-      <c r="JV16" t="n">
-        <v>2359</v>
-      </c>
-      <c r="JW16" t="n">
-        <v>2992</v>
-      </c>
-      <c r="JX16" t="n">
-        <v>4301</v>
-      </c>
-      <c r="JY16" t="n">
-        <v>3166</v>
-      </c>
-      <c r="JZ16" t="n">
-        <v>4065</v>
-      </c>
-      <c r="KA16" t="n">
-        <v>4069</v>
-      </c>
-      <c r="KB16" t="n">
-        <v>2666</v>
-      </c>
-      <c r="KC16" t="n">
-        <v>1700</v>
-      </c>
-      <c r="KD16" t="n">
-        <v>3473</v>
-      </c>
-      <c r="KE16" t="n">
-        <v>3616</v>
-      </c>
       <c r="KF16" t="n">
-        <v>4647</v>
+        <v>4174</v>
       </c>
       <c r="KG16" t="n">
-        <v>3330</v>
+        <v>3763</v>
       </c>
       <c r="KH16" t="n">
-        <v>3924</v>
+        <v>3805</v>
       </c>
       <c r="KI16" t="n">
-        <v>5238</v>
+        <v>4068</v>
       </c>
       <c r="KJ16" t="n">
-        <v>3713</v>
+        <v>3528</v>
       </c>
       <c r="KK16" t="n">
-        <v>2307</v>
+        <v>2892</v>
       </c>
       <c r="KL16" t="n">
-        <v>4172</v>
+        <v>4778</v>
       </c>
       <c r="KM16" t="n">
-        <v>4363</v>
+        <v>4009</v>
       </c>
       <c r="KN16" t="n">
-        <v>3842</v>
+        <v>3873</v>
       </c>
       <c r="KO16" t="n">
-        <v>3139</v>
+        <v>2082</v>
       </c>
       <c r="KP16" t="n">
-        <v>3139</v>
+        <v>3152</v>
       </c>
       <c r="KQ16" t="n">
-        <v>3630</v>
-      </c>
-      <c r="KR16" t="inlineStr"/>
+        <v>3611</v>
+      </c>
+      <c r="KR16" t="n">
+        <v>4102</v>
+      </c>
       <c r="KS16" t="inlineStr"/>
       <c r="KT16" t="inlineStr"/>
       <c r="KU16" t="inlineStr"/>
@@ -12566,7 +12592,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>HYUNDAI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -12678,588 +12704,590 @@
       <c r="DD17" t="inlineStr"/>
       <c r="DE17" t="inlineStr"/>
       <c r="DF17" t="n">
-        <v>2683</v>
+        <v>2898</v>
       </c>
       <c r="DG17" t="n">
-        <v>2414</v>
+        <v>3410</v>
       </c>
       <c r="DH17" t="n">
-        <v>3356</v>
+        <v>3784</v>
       </c>
       <c r="DI17" t="n">
-        <v>1627</v>
+        <v>3128</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2500</v>
+        <v>3220</v>
       </c>
       <c r="DK17" t="n">
-        <v>2226</v>
+        <v>2825</v>
       </c>
       <c r="DL17" t="n">
-        <v>1787</v>
+        <v>2758</v>
       </c>
       <c r="DM17" t="n">
-        <v>901</v>
+        <v>1306</v>
       </c>
       <c r="DN17" t="n">
-        <v>2282</v>
+        <v>2670</v>
       </c>
       <c r="DO17" t="n">
-        <v>2479</v>
+        <v>3411</v>
       </c>
       <c r="DP17" t="n">
-        <v>2337</v>
+        <v>3407</v>
       </c>
       <c r="DQ17" t="n">
-        <v>2397</v>
+        <v>2584</v>
       </c>
       <c r="DR17" t="n">
-        <v>2739</v>
+        <v>3254</v>
       </c>
       <c r="DS17" t="n">
-        <v>2968</v>
+        <v>3137</v>
       </c>
       <c r="DT17" t="n">
-        <v>3055</v>
+        <v>3227</v>
       </c>
       <c r="DU17" t="n">
-        <v>2954</v>
+        <v>2539</v>
       </c>
       <c r="DV17" t="n">
-        <v>3438</v>
+        <v>3203</v>
       </c>
       <c r="DW17" t="n">
-        <v>3237</v>
+        <v>2546</v>
       </c>
       <c r="DX17" t="n">
-        <v>2424</v>
+        <v>3078</v>
       </c>
       <c r="DY17" t="n">
-        <v>1297</v>
+        <v>1417</v>
       </c>
       <c r="DZ17" t="n">
-        <v>2090</v>
+        <v>2408</v>
       </c>
       <c r="EA17" t="n">
-        <v>2390</v>
+        <v>2690</v>
       </c>
       <c r="EB17" t="n">
-        <v>1958</v>
+        <v>2758</v>
       </c>
       <c r="EC17" t="n">
+        <v>3378</v>
+      </c>
+      <c r="ED17" t="n">
         <v>2081</v>
       </c>
-      <c r="ED17" t="n">
-        <v>2449</v>
-      </c>
       <c r="EE17" t="n">
-        <v>1941</v>
+        <v>2556</v>
       </c>
       <c r="EF17" t="n">
-        <v>2446</v>
+        <v>1709</v>
       </c>
       <c r="EG17" t="n">
-        <v>1796</v>
+        <v>2094</v>
       </c>
       <c r="EH17" t="n">
-        <v>1600</v>
+        <v>2022</v>
       </c>
       <c r="EI17" t="n">
-        <v>1773</v>
+        <v>2484</v>
       </c>
       <c r="EJ17" t="n">
-        <v>1736</v>
+        <v>1834</v>
       </c>
       <c r="EK17" t="n">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="EL17" t="n">
-        <v>1389</v>
+        <v>1624</v>
       </c>
       <c r="EM17" t="n">
-        <v>1845</v>
+        <v>1498</v>
       </c>
       <c r="EN17" t="n">
-        <v>1497</v>
+        <v>937</v>
       </c>
       <c r="EO17" t="n">
-        <v>1494</v>
+        <v>779</v>
       </c>
       <c r="EP17" t="n">
-        <v>1695</v>
+        <v>1342</v>
       </c>
       <c r="EQ17" t="n">
-        <v>1195</v>
+        <v>1809</v>
       </c>
       <c r="ER17" t="n">
-        <v>2020</v>
+        <v>4014</v>
       </c>
       <c r="ES17" t="n">
-        <v>1695</v>
+        <v>2404</v>
       </c>
       <c r="ET17" t="n">
-        <v>1779</v>
+        <v>3619</v>
       </c>
       <c r="EU17" t="n">
-        <v>1765</v>
+        <v>5168</v>
       </c>
       <c r="EV17" t="n">
-        <v>2341</v>
+        <v>4522</v>
       </c>
       <c r="EW17" t="n">
-        <v>771</v>
+        <v>1509</v>
       </c>
       <c r="EX17" t="n">
-        <v>2032</v>
+        <v>3998</v>
       </c>
       <c r="EY17" t="n">
-        <v>1830</v>
+        <v>2264</v>
       </c>
       <c r="EZ17" t="n">
-        <v>1906</v>
+        <v>3787</v>
       </c>
       <c r="FA17" t="n">
-        <v>1827</v>
+        <v>4441</v>
       </c>
       <c r="FB17" t="n">
-        <v>1990</v>
+        <v>3474</v>
       </c>
       <c r="FC17" t="n">
-        <v>2094</v>
+        <v>3794</v>
       </c>
       <c r="FD17" t="n">
-        <v>2993</v>
+        <v>5171</v>
       </c>
       <c r="FE17" t="n">
-        <v>1381</v>
+        <v>2142</v>
       </c>
       <c r="FF17" t="n">
-        <v>1280</v>
+        <v>2884</v>
       </c>
       <c r="FG17" t="n">
-        <v>1677</v>
+        <v>3088</v>
       </c>
       <c r="FH17" t="n">
-        <v>1390</v>
+        <v>2307</v>
       </c>
       <c r="FI17" t="n">
-        <v>659</v>
+        <v>1343</v>
       </c>
       <c r="FJ17" t="n">
-        <v>1436</v>
+        <v>3519</v>
       </c>
       <c r="FK17" t="n">
-        <v>1488</v>
+        <v>2686</v>
       </c>
       <c r="FL17" t="n">
-        <v>1392</v>
+        <v>2382</v>
       </c>
       <c r="FM17" t="n">
-        <v>1277</v>
+        <v>3338</v>
       </c>
       <c r="FN17" t="n">
-        <v>1649</v>
+        <v>3386</v>
       </c>
       <c r="FO17" t="n">
-        <v>1654</v>
+        <v>3632</v>
       </c>
       <c r="FP17" t="n">
-        <v>1846</v>
+        <v>4161</v>
       </c>
       <c r="FQ17" t="n">
-        <v>1253</v>
+        <v>4398</v>
       </c>
       <c r="FR17" t="n">
-        <v>1515</v>
+        <v>4181</v>
       </c>
       <c r="FS17" t="n">
-        <v>1740</v>
+        <v>4116</v>
       </c>
       <c r="FT17" t="n">
-        <v>1787</v>
+        <v>3533</v>
       </c>
       <c r="FU17" t="n">
-        <v>824</v>
+        <v>1755</v>
       </c>
       <c r="FV17" t="n">
-        <v>1908</v>
+        <v>3911</v>
       </c>
       <c r="FW17" t="n">
-        <v>1570</v>
+        <v>3567</v>
       </c>
       <c r="FX17" t="n">
-        <v>2105</v>
+        <v>3906</v>
       </c>
       <c r="FY17" t="n">
-        <v>1603</v>
+        <v>2930</v>
       </c>
       <c r="FZ17" t="n">
-        <v>2369</v>
+        <v>4052</v>
       </c>
       <c r="GA17" t="n">
-        <v>2375</v>
+        <v>4064</v>
       </c>
       <c r="GB17" t="n">
-        <v>2354</v>
+        <v>4654</v>
       </c>
       <c r="GC17" t="n">
-        <v>2085</v>
+        <v>4156</v>
       </c>
       <c r="GD17" t="n">
-        <v>2766</v>
+        <v>4220</v>
       </c>
       <c r="GE17" t="n">
-        <v>2287</v>
+        <v>4287</v>
       </c>
       <c r="GF17" t="n">
-        <v>2431</v>
+        <v>3369</v>
       </c>
       <c r="GG17" t="n">
-        <v>1479</v>
+        <v>1753</v>
       </c>
       <c r="GH17" t="n">
-        <v>2151</v>
+        <v>3167</v>
       </c>
       <c r="GI17" t="n">
-        <v>2854</v>
+        <v>3551</v>
       </c>
       <c r="GJ17" t="n">
-        <v>2320</v>
+        <v>3439</v>
       </c>
       <c r="GK17" t="n">
-        <v>1591</v>
+        <v>2837</v>
       </c>
       <c r="GL17" t="n">
-        <v>3097</v>
+        <v>3575</v>
       </c>
       <c r="GM17" t="n">
-        <v>2765</v>
+        <v>3193</v>
       </c>
       <c r="GN17" t="n">
-        <v>3296</v>
+        <v>3992</v>
       </c>
       <c r="GO17" t="n">
-        <v>2441</v>
+        <v>3730</v>
       </c>
       <c r="GP17" t="n">
-        <v>2797</v>
+        <v>3731</v>
       </c>
       <c r="GQ17" t="n">
-        <v>2466</v>
+        <v>3587</v>
       </c>
       <c r="GR17" t="n">
-        <v>2617</v>
+        <v>3227</v>
       </c>
       <c r="GS17" t="n">
-        <v>1348</v>
+        <v>2000</v>
       </c>
       <c r="GT17" t="n">
-        <v>2511</v>
+        <v>2846</v>
       </c>
       <c r="GU17" t="n">
-        <v>2562</v>
+        <v>3142</v>
       </c>
       <c r="GV17" t="n">
-        <v>2231</v>
+        <v>2491</v>
       </c>
       <c r="GW17" t="n">
-        <v>1782</v>
+        <v>2816</v>
       </c>
       <c r="GX17" t="n">
-        <v>2817</v>
+        <v>3244</v>
       </c>
       <c r="GY17" t="n">
-        <v>3130</v>
+        <v>3433</v>
       </c>
       <c r="GZ17" t="n">
-        <v>2870</v>
+        <v>4050</v>
       </c>
       <c r="HA17" t="n">
-        <v>2796</v>
+        <v>3915</v>
       </c>
       <c r="HB17" t="n">
-        <v>2726</v>
+        <v>3928</v>
       </c>
       <c r="HC17" t="n">
-        <v>2667</v>
+        <v>3592</v>
       </c>
       <c r="HD17" t="n">
-        <v>3108</v>
+        <v>3857</v>
       </c>
       <c r="HE17" t="n">
-        <v>1613</v>
+        <v>1722</v>
       </c>
       <c r="HF17" t="n">
+        <v>3817</v>
+      </c>
+      <c r="HG17" t="n">
+        <v>3736</v>
+      </c>
+      <c r="HH17" t="n">
+        <v>3271</v>
+      </c>
+      <c r="HI17" t="n">
+        <v>3205</v>
+      </c>
+      <c r="HJ17" t="n">
+        <v>3865</v>
+      </c>
+      <c r="HK17" t="n">
+        <v>4362</v>
+      </c>
+      <c r="HL17" t="n">
+        <v>4891</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>4250</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>4282</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>4059</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>3826</v>
+      </c>
+      <c r="HQ17" t="n">
+        <v>1772</v>
+      </c>
+      <c r="HR17" t="n">
+        <v>4056</v>
+      </c>
+      <c r="HS17" t="n">
+        <v>4193</v>
+      </c>
+      <c r="HT17" t="n">
+        <v>4081</v>
+      </c>
+      <c r="HU17" t="n">
+        <v>3724</v>
+      </c>
+      <c r="HV17" t="n">
+        <v>4343</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>4837</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>5383</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>5292</v>
+      </c>
+      <c r="HZ17" t="n">
+        <v>5328</v>
+      </c>
+      <c r="IA17" t="n">
+        <v>5337</v>
+      </c>
+      <c r="IB17" t="n">
+        <v>4069</v>
+      </c>
+      <c r="IC17" t="n">
+        <v>2325</v>
+      </c>
+      <c r="ID17" t="n">
+        <v>5066</v>
+      </c>
+      <c r="IE17" t="n">
+        <v>5081</v>
+      </c>
+      <c r="IF17" t="n">
+        <v>5136</v>
+      </c>
+      <c r="IG17" t="n">
+        <v>4182</v>
+      </c>
+      <c r="IH17" t="n">
+        <v>4436</v>
+      </c>
+      <c r="II17" t="n">
+        <v>5183</v>
+      </c>
+      <c r="IJ17" t="n">
+        <v>5446</v>
+      </c>
+      <c r="IK17" t="n">
+        <v>4634</v>
+      </c>
+      <c r="IL17" t="n">
+        <v>5681</v>
+      </c>
+      <c r="IM17" t="n">
+        <v>5636</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>3734</v>
+      </c>
+      <c r="IO17" t="n">
+        <v>2467</v>
+      </c>
+      <c r="IP17" t="n">
+        <v>5346</v>
+      </c>
+      <c r="IQ17" t="n">
+        <v>5944</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>5775</v>
+      </c>
+      <c r="IS17" t="n">
+        <v>4652</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>4031</v>
+      </c>
+      <c r="IU17" t="n">
+        <v>4544</v>
+      </c>
+      <c r="IV17" t="n">
+        <v>5406</v>
+      </c>
+      <c r="IW17" t="n">
+        <v>4508</v>
+      </c>
+      <c r="IX17" t="n">
+        <v>5285</v>
+      </c>
+      <c r="IY17" t="n">
+        <v>5166</v>
+      </c>
+      <c r="IZ17" t="n">
+        <v>4271</v>
+      </c>
+      <c r="JA17" t="n">
+        <v>2778</v>
+      </c>
+      <c r="JB17" t="n">
+        <v>4518</v>
+      </c>
+      <c r="JC17" t="n">
+        <v>4854</v>
+      </c>
+      <c r="JD17" t="n">
+        <v>4663</v>
+      </c>
+      <c r="JE17" t="n">
+        <v>3435</v>
+      </c>
+      <c r="JF17" t="n">
+        <v>3561</v>
+      </c>
+      <c r="JG17" t="n">
+        <v>4144</v>
+      </c>
+      <c r="JH17" t="n">
+        <v>4660</v>
+      </c>
+      <c r="JI17" t="n">
+        <v>3759</v>
+      </c>
+      <c r="JJ17" t="n">
+        <v>4688</v>
+      </c>
+      <c r="JK17" t="n">
+        <v>4607</v>
+      </c>
+      <c r="JL17" t="n">
+        <v>4276</v>
+      </c>
+      <c r="JM17" t="n">
+        <v>2279</v>
+      </c>
+      <c r="JN17" t="n">
+        <v>4561</v>
+      </c>
+      <c r="JO17" t="n">
+        <v>5006</v>
+      </c>
+      <c r="JP17" t="n">
+        <v>4720</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>4100</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>3689</v>
+      </c>
+      <c r="JS17" t="n">
+        <v>3562</v>
+      </c>
+      <c r="JT17" t="n">
+        <v>783</v>
+      </c>
+      <c r="JU17" t="n">
+        <v>37</v>
+      </c>
+      <c r="JV17" t="n">
+        <v>2359</v>
+      </c>
+      <c r="JW17" t="n">
         <v>2992</v>
       </c>
-      <c r="HG17" t="n">
-        <v>3197</v>
-      </c>
-      <c r="HH17" t="n">
-        <v>2608</v>
-      </c>
-      <c r="HI17" t="n">
-        <v>2213</v>
-      </c>
-      <c r="HJ17" t="n">
-        <v>3482</v>
-      </c>
-      <c r="HK17" t="n">
-        <v>3499</v>
-      </c>
-      <c r="HL17" t="n">
-        <v>3627</v>
-      </c>
-      <c r="HM17" t="n">
-        <v>3571</v>
-      </c>
-      <c r="HN17" t="n">
-        <v>3728</v>
-      </c>
-      <c r="HO17" t="n">
-        <v>3587</v>
-      </c>
-      <c r="HP17" t="n">
-        <v>3665</v>
-      </c>
-      <c r="HQ17" t="n">
-        <v>1757</v>
-      </c>
-      <c r="HR17" t="n">
-        <v>3089</v>
-      </c>
-      <c r="HS17" t="n">
-        <v>3762</v>
-      </c>
-      <c r="HT17" t="n">
-        <v>3117</v>
-      </c>
-      <c r="HU17" t="n">
-        <v>2181</v>
-      </c>
-      <c r="HV17" t="n">
-        <v>4497</v>
-      </c>
-      <c r="HW17" t="n">
-        <v>3941</v>
-      </c>
-      <c r="HX17" t="n">
-        <v>4244</v>
-      </c>
-      <c r="HY17" t="n">
-        <v>3787</v>
-      </c>
-      <c r="HZ17" t="n">
-        <v>4910</v>
-      </c>
-      <c r="IA17" t="n">
-        <v>4018</v>
-      </c>
-      <c r="IB17" t="n">
-        <v>4005</v>
-      </c>
-      <c r="IC17" t="n">
-        <v>2246</v>
-      </c>
-      <c r="ID17" t="n">
-        <v>3744</v>
-      </c>
-      <c r="IE17" t="n">
-        <v>3797</v>
-      </c>
-      <c r="IF17" t="n">
-        <v>3419</v>
-      </c>
-      <c r="IG17" t="n">
-        <v>2546</v>
-      </c>
-      <c r="IH17" t="n">
-        <v>4803</v>
-      </c>
-      <c r="II17" t="n">
-        <v>4414</v>
-      </c>
-      <c r="IJ17" t="n">
-        <v>4674</v>
-      </c>
-      <c r="IK17" t="n">
-        <v>3578</v>
-      </c>
-      <c r="IL17" t="n">
-        <v>4835</v>
-      </c>
-      <c r="IM17" t="n">
-        <v>4420</v>
-      </c>
-      <c r="IN17" t="n">
-        <v>4366</v>
-      </c>
-      <c r="IO17" t="n">
-        <v>2096</v>
-      </c>
-      <c r="IP17" t="n">
-        <v>3377</v>
-      </c>
-      <c r="IQ17" t="n">
-        <v>4235</v>
-      </c>
-      <c r="IR17" t="n">
-        <v>3684</v>
-      </c>
-      <c r="IS17" t="n">
-        <v>3475</v>
-      </c>
-      <c r="IT17" t="n">
-        <v>4064</v>
-      </c>
-      <c r="IU17" t="n">
-        <v>4431</v>
-      </c>
-      <c r="IV17" t="n">
-        <v>4256</v>
-      </c>
-      <c r="IW17" t="n">
-        <v>5245</v>
-      </c>
-      <c r="IX17" t="n">
-        <v>4793</v>
-      </c>
-      <c r="IY17" t="n">
-        <v>4015</v>
-      </c>
-      <c r="IZ17" t="n">
-        <v>4526</v>
-      </c>
-      <c r="JA17" t="n">
-        <v>2435</v>
-      </c>
-      <c r="JB17" t="n">
-        <v>3770</v>
-      </c>
-      <c r="JC17" t="n">
-        <v>4153</v>
-      </c>
-      <c r="JD17" t="n">
-        <v>3422</v>
-      </c>
-      <c r="JE17" t="n">
-        <v>2647</v>
-      </c>
-      <c r="JF17" t="n">
-        <v>4458</v>
-      </c>
-      <c r="JG17" t="n">
-        <v>4100</v>
-      </c>
-      <c r="JH17" t="n">
-        <v>3966</v>
-      </c>
-      <c r="JI17" t="n">
-        <v>4821</v>
-      </c>
-      <c r="JJ17" t="n">
-        <v>4044</v>
-      </c>
-      <c r="JK17" t="n">
-        <v>4196</v>
-      </c>
-      <c r="JL17" t="n">
-        <v>4015</v>
-      </c>
-      <c r="JM17" t="n">
-        <v>2310</v>
-      </c>
-      <c r="JN17" t="n">
-        <v>3831</v>
-      </c>
-      <c r="JO17" t="n">
-        <v>4587</v>
-      </c>
-      <c r="JP17" t="n">
-        <v>3977</v>
-      </c>
-      <c r="JQ17" t="n">
-        <v>3457</v>
-      </c>
-      <c r="JR17" t="n">
-        <v>4460</v>
-      </c>
-      <c r="JS17" t="n">
-        <v>4556</v>
-      </c>
-      <c r="JT17" t="n">
-        <v>1632</v>
-      </c>
-      <c r="JU17" t="n">
-        <v>23</v>
-      </c>
-      <c r="JV17" t="n">
-        <v>2451</v>
-      </c>
-      <c r="JW17" t="n">
-        <v>2994</v>
-      </c>
       <c r="JX17" t="n">
-        <v>3354</v>
+        <v>4301</v>
       </c>
       <c r="JY17" t="n">
-        <v>2557</v>
+        <v>3166</v>
       </c>
       <c r="JZ17" t="n">
-        <v>4433</v>
+        <v>4065</v>
       </c>
       <c r="KA17" t="n">
-        <v>4271</v>
+        <v>4069</v>
       </c>
       <c r="KB17" t="n">
-        <v>2808</v>
+        <v>2666</v>
       </c>
       <c r="KC17" t="n">
-        <v>1919</v>
+        <v>1700</v>
       </c>
       <c r="KD17" t="n">
-        <v>3187</v>
+        <v>3473</v>
       </c>
       <c r="KE17" t="n">
-        <v>3734</v>
+        <v>3616</v>
       </c>
       <c r="KF17" t="n">
-        <v>4174</v>
+        <v>4647</v>
       </c>
       <c r="KG17" t="n">
-        <v>3763</v>
+        <v>3330</v>
       </c>
       <c r="KH17" t="n">
-        <v>3805</v>
+        <v>3924</v>
       </c>
       <c r="KI17" t="n">
-        <v>4068</v>
+        <v>5238</v>
       </c>
       <c r="KJ17" t="n">
-        <v>3528</v>
+        <v>3713</v>
       </c>
       <c r="KK17" t="n">
-        <v>2892</v>
+        <v>2307</v>
       </c>
       <c r="KL17" t="n">
-        <v>4778</v>
+        <v>4172</v>
       </c>
       <c r="KM17" t="n">
-        <v>4009</v>
+        <v>4363</v>
       </c>
       <c r="KN17" t="n">
-        <v>3873</v>
+        <v>3842</v>
       </c>
       <c r="KO17" t="n">
         <v>2380</v>
       </c>
       <c r="KP17" t="n">
-        <v>3152</v>
+        <v>3139</v>
       </c>
       <c r="KQ17" t="n">
-        <v>3608</v>
-      </c>
-      <c r="KR17" t="inlineStr"/>
+        <v>3630</v>
+      </c>
+      <c r="KR17" t="n">
+        <v>2905</v>
+      </c>
       <c r="KS17" t="inlineStr"/>
       <c r="KT17" t="inlineStr"/>
       <c r="KU17" t="inlineStr"/>
@@ -13958,7 +13986,7 @@
         <v>3519</v>
       </c>
       <c r="KO18" t="n">
-        <v>6368</v>
+        <v>3139</v>
       </c>
       <c r="KP18" t="n">
         <v>4284</v>
@@ -13966,7 +13994,9 @@
       <c r="KQ18" t="n">
         <v>4250</v>
       </c>
-      <c r="KR18" t="inlineStr"/>
+      <c r="KR18" t="n">
+        <v>4100</v>
+      </c>
       <c r="KS18" t="inlineStr"/>
       <c r="KT18" t="inlineStr"/>
       <c r="KU18" t="inlineStr"/>
@@ -14665,7 +14695,7 @@
         <v>1643</v>
       </c>
       <c r="KO19" t="n">
-        <v>1331</v>
+        <v>1829</v>
       </c>
       <c r="KP19" t="n">
         <v>1872</v>
@@ -14673,7 +14703,9 @@
       <c r="KQ19" t="n">
         <v>1664</v>
       </c>
-      <c r="KR19" t="inlineStr"/>
+      <c r="KR19" t="n">
+        <v>1178</v>
+      </c>
       <c r="KS19" t="inlineStr"/>
       <c r="KT19" t="inlineStr"/>
       <c r="KU19" t="inlineStr"/>
@@ -15363,7 +15395,7 @@
         <v>1656</v>
       </c>
       <c r="KL20" t="n">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="KM20" t="n">
         <v>3666</v>
@@ -15372,15 +15404,17 @@
         <v>3240</v>
       </c>
       <c r="KO20" t="n">
-        <v>1666</v>
+        <v>2754</v>
       </c>
       <c r="KP20" t="n">
         <v>3144</v>
       </c>
       <c r="KQ20" t="n">
-        <v>3399</v>
-      </c>
-      <c r="KR20" t="inlineStr"/>
+        <v>3404</v>
+      </c>
+      <c r="KR20" t="n">
+        <v>4559</v>
+      </c>
       <c r="KS20" t="inlineStr"/>
       <c r="KT20" t="inlineStr"/>
       <c r="KU20" t="inlineStr"/>
@@ -16079,7 +16113,7 @@
         <v>625</v>
       </c>
       <c r="KO21" t="n">
-        <v>321</v>
+        <v>476</v>
       </c>
       <c r="KP21" t="n">
         <v>266</v>
@@ -16087,7 +16121,9 @@
       <c r="KQ21" t="n">
         <v>322</v>
       </c>
-      <c r="KR21" t="inlineStr"/>
+      <c r="KR21" t="n">
+        <v>373</v>
+      </c>
       <c r="KS21" t="inlineStr"/>
       <c r="KT21" t="inlineStr"/>
       <c r="KU21" t="inlineStr"/>
@@ -16786,15 +16822,17 @@
         <v>2498</v>
       </c>
       <c r="KO22" t="n">
-        <v>867</v>
+        <v>1482</v>
       </c>
       <c r="KP22" t="n">
         <v>2625</v>
       </c>
       <c r="KQ22" t="n">
-        <v>2411</v>
-      </c>
-      <c r="KR22" t="inlineStr"/>
+        <v>2412</v>
+      </c>
+      <c r="KR22" t="n">
+        <v>2114</v>
+      </c>
       <c r="KS22" t="inlineStr"/>
       <c r="KT22" t="inlineStr"/>
       <c r="KU22" t="inlineStr"/>
@@ -17493,15 +17531,17 @@
         <v>2350</v>
       </c>
       <c r="KO23" t="n">
-        <v>802</v>
+        <v>1666</v>
       </c>
       <c r="KP23" t="n">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="KQ23" t="n">
-        <v>2180</v>
-      </c>
-      <c r="KR23" t="inlineStr"/>
+        <v>2181</v>
+      </c>
+      <c r="KR23" t="n">
+        <v>2537</v>
+      </c>
       <c r="KS23" t="inlineStr"/>
       <c r="KT23" t="inlineStr"/>
       <c r="KU23" t="inlineStr"/>
@@ -18200,7 +18240,7 @@
         <v>1420</v>
       </c>
       <c r="KO24" t="n">
-        <v>251</v>
+        <v>802</v>
       </c>
       <c r="KP24" t="n">
         <v>961</v>
@@ -18208,7 +18248,9 @@
       <c r="KQ24" t="n">
         <v>1031</v>
       </c>
-      <c r="KR24" t="inlineStr"/>
+      <c r="KR24" t="n">
+        <v>1226</v>
+      </c>
       <c r="KS24" t="inlineStr"/>
       <c r="KT24" t="inlineStr"/>
       <c r="KU24" t="inlineStr"/>
@@ -18907,15 +18949,17 @@
         <v>585</v>
       </c>
       <c r="KO25" t="n">
-        <v>2211</v>
+        <v>487</v>
       </c>
       <c r="KP25" t="n">
         <v>566</v>
       </c>
       <c r="KQ25" t="n">
-        <v>409</v>
-      </c>
-      <c r="KR25" t="inlineStr"/>
+        <v>408</v>
+      </c>
+      <c r="KR25" t="n">
+        <v>449</v>
+      </c>
       <c r="KS25" t="inlineStr"/>
       <c r="KT25" t="inlineStr"/>
       <c r="KU25" t="inlineStr"/>
@@ -19614,7 +19658,7 @@
         <v>873</v>
       </c>
       <c r="KO26" t="n">
-        <v>1482</v>
+        <v>538</v>
       </c>
       <c r="KP26" t="n">
         <v>807</v>
@@ -19622,7 +19666,9 @@
       <c r="KQ26" t="n">
         <v>941</v>
       </c>
-      <c r="KR26" t="inlineStr"/>
+      <c r="KR26" t="n">
+        <v>966</v>
+      </c>
       <c r="KS26" t="inlineStr"/>
       <c r="KT26" t="inlineStr"/>
       <c r="KU26" t="inlineStr"/>
@@ -20321,15 +20367,17 @@
         <v>539</v>
       </c>
       <c r="KO27" t="n">
-        <v>2312</v>
+        <v>321</v>
       </c>
       <c r="KP27" t="n">
         <v>576</v>
       </c>
       <c r="KQ27" t="n">
-        <v>719</v>
-      </c>
-      <c r="KR27" t="inlineStr"/>
+        <v>720</v>
+      </c>
+      <c r="KR27" t="n">
+        <v>609</v>
+      </c>
       <c r="KS27" t="inlineStr"/>
       <c r="KT27" t="inlineStr"/>
       <c r="KU27" t="inlineStr"/>
@@ -21028,7 +21076,7 @@
         <v>213</v>
       </c>
       <c r="KO28" t="n">
-        <v>1258</v>
+        <v>157</v>
       </c>
       <c r="KP28" t="n">
         <v>93</v>
@@ -21036,7 +21084,9 @@
       <c r="KQ28" t="n">
         <v>196</v>
       </c>
-      <c r="KR28" t="inlineStr"/>
+      <c r="KR28" t="n">
+        <v>203</v>
+      </c>
       <c r="KS28" t="inlineStr"/>
       <c r="KT28" t="inlineStr"/>
       <c r="KU28" t="inlineStr"/>
@@ -21741,7 +21791,9 @@
       <c r="KQ29" t="n">
         <v>61</v>
       </c>
-      <c r="KR29" t="inlineStr"/>
+      <c r="KR29" t="n">
+        <v>94</v>
+      </c>
       <c r="KS29" t="inlineStr"/>
       <c r="KT29" t="inlineStr"/>
       <c r="KU29" t="inlineStr"/>
@@ -22629,43 +22681,43 @@
         <v>143161</v>
       </c>
       <c r="KF30" t="n">
-        <v>169885</v>
+        <v>169886</v>
       </c>
       <c r="KG30" t="n">
-        <v>145243</v>
+        <v>145242</v>
       </c>
       <c r="KH30" t="n">
-        <v>142934</v>
+        <v>142932</v>
       </c>
       <c r="KI30" t="n">
-        <v>149669</v>
+        <v>149670</v>
       </c>
       <c r="KJ30" t="n">
         <v>110511</v>
       </c>
       <c r="KK30" t="n">
-        <v>64767</v>
+        <v>64766</v>
       </c>
       <c r="KL30" t="n">
-        <v>105315</v>
+        <v>105317</v>
       </c>
       <c r="KM30" t="n">
         <v>101101</v>
       </c>
       <c r="KN30" t="n">
-        <v>104520</v>
+        <v>104519</v>
       </c>
       <c r="KO30" t="n">
-        <v>86710</v>
+        <v>86713</v>
       </c>
       <c r="KP30" t="n">
-        <v>107847</v>
+        <v>107850</v>
       </c>
       <c r="KQ30" t="n">
-        <v>110869</v>
+        <v>110911</v>
       </c>
       <c r="KR30" t="n">
-        <v>0</v>
+        <v>119497</v>
       </c>
       <c r="KS30" t="n">
         <v>0</v>
